--- a/public/Conferencia.xlsx
+++ b/public/Conferencia.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t xml:space="preserve">Contrato Principal</t>
   </si>
@@ -31,7 +31,10 @@
     <t xml:space="preserve">Loja</t>
   </si>
   <si>
-    <t xml:space="preserve">JOSE ALBERTO SARRAZIN TEIXEIRA</t>
+    <t xml:space="preserve">1829403936-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SARAH GRACE CURI</t>
   </si>
   <si>
     <t xml:space="preserve">Projeto Inicial</t>
@@ -55,22 +58,19 @@
     <t xml:space="preserve">Dif. Líquida</t>
   </si>
   <si>
-    <t xml:space="preserve">Completo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Banheiro</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cozinha</t>
   </si>
   <si>
-    <t xml:space="preserve">Dorm Casal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dorm Solt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Home</t>
+    <t xml:space="preserve">Dorm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dorms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banho suite</t>
   </si>
   <si>
     <t xml:space="preserve">Totais</t>
@@ -88,13 +88,10 @@
     <t xml:space="preserve">´</t>
   </si>
   <si>
-    <t xml:space="preserve">Aumento 09/07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Complementos Iniciais</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Complementos Finais</t>
+    <t xml:space="preserve">Granito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complementos</t>
   </si>
   <si>
     <t xml:space="preserve">Contrato</t>
@@ -275,7 +272,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -291,10 +288,6 @@
     <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -337,10 +330,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -443,20 +432,20 @@
   </sheetPr>
   <dimension ref="B1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M33" activeCellId="0" sqref="M33"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L40" activeCellId="0" sqref="L40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="19.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="2.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="1" width="15.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="1.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="8" style="1" width="15.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="2.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="2.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="1" width="15.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="1.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="8" style="1" width="15.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="2.44"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -468,7 +457,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="21.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
         <v>0</v>
@@ -486,35 +475,35 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="19.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="2"/>
-      <c r="C3" s="4" t="n">
-        <v>1829403342</v>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="D3" s="4"/>
-      <c r="E3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="6" t="str">
-        <f aca="false">IF(C3&gt;1829500000,"MAUÁ","ST ANDRE")</f>
-        <v>ST ANDRE</v>
+      <c r="E3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="5" t="str">
+        <f aca="false">IF(C3&gt;1829500000,"SANTO ANDRE","ST ANDRE")</f>
+        <v>SANTO ANDRE</v>
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="19.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="2"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="6"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="5"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -529,483 +518,472 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="2"/>
-      <c r="C6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="C6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
+      <c r="H6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="19.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="2"/>
-      <c r="C7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="11" t="s">
+      <c r="F7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="11" t="s">
-        <v>10</v>
+      <c r="I7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" customFormat="false" ht="19.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="2"/>
-      <c r="C8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="13" t="n">
-        <v>76831.35</v>
-      </c>
-      <c r="E8" s="13" t="n">
-        <v>42500</v>
-      </c>
-      <c r="F8" s="14" t="n">
+      <c r="C8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="12" t="n">
+        <v>23340.45</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>10500</v>
+      </c>
+      <c r="F8" s="13" t="n">
         <f aca="false">1-(E8/D8)</f>
-        <v>0.446840384816875</v>
-      </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="13" t="n">
-        <v>75000</v>
-      </c>
-      <c r="I8" s="15" t="n">
+        <v>0.550137208151514</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="12" t="n">
+        <v>29826.55</v>
+      </c>
+      <c r="I8" s="14" t="n">
         <f aca="false">H8-(H8*$F$16)</f>
-        <v>41486.9711387344</v>
-      </c>
-      <c r="J8" s="15" t="n">
+        <v>13417.8550542085</v>
+      </c>
+      <c r="J8" s="14" t="n">
         <f aca="false">E8-I8</f>
-        <v>1013.02886126562</v>
+        <v>-2917.85505420847</v>
       </c>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" customFormat="false" ht="19.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="2"/>
-      <c r="C9" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="14" t="e">
+      <c r="C9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13" t="e">
         <f aca="false">1-(E9/D9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="15" t="n">
+      <c r="G9" s="9"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="14" t="n">
         <f aca="false">H9-(H9*$F$16)</f>
         <v>0</v>
       </c>
-      <c r="J9" s="15" t="n">
+      <c r="J9" s="14" t="n">
         <f aca="false">E9-I9</f>
         <v>0</v>
       </c>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" customFormat="false" ht="19.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="2"/>
-      <c r="C10" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="14" t="e">
+      <c r="C10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="13" t="e">
         <f aca="false">1-(E10/D10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="15" t="n">
+      <c r="G10" s="9"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="14" t="n">
         <f aca="false">H10-(H10*$F$16)</f>
         <v>0</v>
       </c>
-      <c r="J10" s="15" t="n">
+      <c r="J10" s="14" t="n">
         <f aca="false">E10-I10</f>
         <v>0</v>
       </c>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" customFormat="false" ht="19.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="2"/>
-      <c r="C11" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="14" t="e">
+      <c r="C11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="13" t="e">
         <f aca="false">1-(E11/D11)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="15" t="n">
+      <c r="G11" s="9"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="14" t="n">
         <f aca="false">H11-(H11*$F$16)</f>
         <v>0</v>
       </c>
-      <c r="J11" s="15" t="n">
+      <c r="J11" s="14" t="n">
         <f aca="false">E11-I11</f>
         <v>0</v>
       </c>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" customFormat="false" ht="19.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="2"/>
-      <c r="C12" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="14" t="e">
+      <c r="C12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="13" t="e">
         <f aca="false">1-(E12/D12)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="15" t="n">
+      <c r="G12" s="9"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="14" t="n">
         <f aca="false">H12-(H12*$F$16)</f>
         <v>0</v>
       </c>
-      <c r="J12" s="15" t="n">
+      <c r="J12" s="14" t="n">
         <f aca="false">E12-I12</f>
         <v>0</v>
       </c>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" customFormat="false" ht="19.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="2"/>
-      <c r="C13" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="14" t="e">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="13" t="e">
         <f aca="false">1-(E13/D13)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="15" t="n">
+      <c r="G13" s="9"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="14" t="n">
         <f aca="false">H13-(H13*$F$16)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="15" t="n">
+      <c r="J13" s="14" t="n">
         <f aca="false">E13-I13</f>
         <v>0</v>
       </c>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" customFormat="false" ht="19.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="2"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="14" t="e">
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="13" t="e">
         <f aca="false">1-(E14/D14)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="14" t="n">
+        <f aca="false">H14-(H14*$F$16)</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="14" t="n">
+        <f aca="false">E14-I14</f>
+        <v>0</v>
+      </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" customFormat="false" ht="19.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="2"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="14" t="e">
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="13" t="e">
         <f aca="false">1-(E15/D15)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="14" t="n">
+        <f aca="false">H15-(H15*$F$16)</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="14" t="n">
+        <f aca="false">E15-I15</f>
+        <v>0</v>
+      </c>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" customFormat="false" ht="19.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="2"/>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="15" t="n">
+      <c r="D16" s="14" t="n">
         <f aca="false">SUM(D8:D11)</f>
-        <v>76831.35</v>
-      </c>
-      <c r="E16" s="15" t="n">
+        <v>23340.45</v>
+      </c>
+      <c r="E16" s="14" t="n">
         <f aca="false">SUM(E8:E11)</f>
-        <v>42500</v>
-      </c>
-      <c r="F16" s="14" t="n">
+        <v>10500</v>
+      </c>
+      <c r="F16" s="13" t="n">
         <f aca="false">1-(E16/D16)</f>
-        <v>0.446840384816875</v>
-      </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="15" t="n">
+        <v>0.550137208151514</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="14" t="n">
         <f aca="false">SUM(H8:H15)</f>
-        <v>75000</v>
-      </c>
-      <c r="I16" s="15" t="n">
+        <v>29826.55</v>
+      </c>
+      <c r="I16" s="14" t="n">
         <f aca="false">SUM(I8:I14)</f>
-        <v>41486.9711387344</v>
-      </c>
-      <c r="J16" s="15" t="n">
+        <v>13417.8550542085</v>
+      </c>
+      <c r="J16" s="14" t="n">
         <f aca="false">E16-I16</f>
-        <v>1013.02886126562</v>
+        <v>-2917.85505420847</v>
       </c>
       <c r="K16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="2"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" customFormat="false" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="2"/>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="8" t="s">
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" customFormat="false" ht="19.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="2"/>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="9" t="s">
+      <c r="D19" s="8"/>
+      <c r="E19" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="11" t="s">
+      <c r="G19" s="9"/>
+      <c r="H19" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11" t="s">
-        <v>8</v>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" customFormat="false" ht="19.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="2"/>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="13" t="n">
-        <f aca="false">E16*0.05</f>
-        <v>2125</v>
-      </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="13"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="12"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" customFormat="false" ht="19.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="2"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="13"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="12"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" customFormat="false" ht="19.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="2"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="13"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="12"/>
       <c r="K22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="2"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" customFormat="false" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="2"/>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="8" t="s">
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B25" s="2"/>
+      <c r="C25" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="2"/>
-    </row>
-    <row r="25" customFormat="false" ht="19.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="2"/>
-      <c r="C25" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="9"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11" t="s">
-        <v>8</v>
-      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="12"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" customFormat="false" ht="19.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="2"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="13"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="12"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" customFormat="false" ht="19.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="2"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="13"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="12"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" customFormat="false" ht="19.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="2"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="13"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="12"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" customFormat="false" ht="19.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="2"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="13"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="12"/>
       <c r="K29" s="2"/>
     </row>
     <row r="30" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="2"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
       <c r="K30" s="2"/>
     </row>
-    <row r="31" customFormat="false" ht="19.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="2"/>
-      <c r="C31" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="18"/>
-      <c r="E31" s="19" t="n">
-        <f aca="false">E16+E20+E26+E21+E22+J26+J27+J28+J29</f>
-        <v>44625</v>
-      </c>
-      <c r="F31" s="19"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="19" t="n">
-        <f aca="false">I16+J20+J21+J22</f>
-        <v>41486.9711387344</v>
-      </c>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
+      <c r="C31" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="16"/>
+      <c r="E31" s="17" t="n">
+        <f aca="false">E16+E20+E21+E22+E26+E27+E28+E29</f>
+        <v>10500</v>
+      </c>
+      <c r="F31" s="17"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="17" t="n">
+        <f aca="false">I16+J20+J21+J22+J24+J25+J26+J27+J28+J29</f>
+        <v>13417.8550542085</v>
+      </c>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
       <c r="K31" s="2"/>
     </row>
     <row r="32" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1020,44 +998,44 @@
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
     </row>
-    <row r="33" customFormat="false" ht="19.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B33" s="2"/>
-      <c r="C33" s="20"/>
+      <c r="C33" s="18"/>
       <c r="D33" s="2"/>
-      <c r="E33" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
+      <c r="E33" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" customFormat="false" ht="19.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B34" s="2"/>
-      <c r="C34" s="20"/>
+      <c r="C34" s="18"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="21" t="n">
+      <c r="E34" s="19" t="n">
         <f aca="false">E31-H31</f>
-        <v>3138.02886126562</v>
-      </c>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
+        <v>-2917.85505420847</v>
+      </c>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" customFormat="false" ht="19.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B35" s="2"/>
-      <c r="C35" s="20"/>
+      <c r="C35" s="18"/>
       <c r="D35" s="2"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
     </row>
@@ -1073,7 +1051,7 @@
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="44">
     <mergeCell ref="C2:D2"/>
@@ -1098,7 +1076,7 @@
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="H22:I22"/>
     <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H24:I24"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="H25:I25"/>
